--- a/Spec/Pandas/newAPCall.xlsx
+++ b/Spec/Pandas/newAPCall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F283"/>
+  <dimension ref="A1:E283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,6 @@
           <t>IP адрес оборудования</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Найденный результат</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -484,11 +479,6 @@
           <t>10.192.71.75</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 2200</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,11 +504,6 @@
           <t>10.192.71.76</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -544,11 +529,6 @@
           <t>10.192.3.29</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,11 +554,6 @@
           <t>10.192.55.126</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 2200 RM</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,11 +579,6 @@
           <t>10.192.101.20</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -634,11 +604,6 @@
           <t>172.30.0.169</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,11 +629,6 @@
           <t>109.107.160.253</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>APC Back UPS 650</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -694,11 +654,6 @@
           <t>10.192.37.247</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -724,11 +679,6 @@
           <t>10.192.52.149</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>APC SUA1000I Smart-UPS 1000VA/670W USB &amp; Serial</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -754,11 +704,6 @@
           <t>10.192.68.7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -784,11 +729,6 @@
           <t>10.192.0.99</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -814,11 +754,6 @@
           <t>10.192.58.147</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,11 +779,6 @@
           <t>10.192.52.160</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 1500 RM (SUA1500RMI2U)</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -874,11 +804,6 @@
           <t>10.192.52.104</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 1500 RM (SUA1500RMI2U)</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -904,11 +829,6 @@
           <t>10.192.52.180</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT On-Line 1000VA/700W Tower/RM 2U, SmartSlot, BLACK [SURT1000XLI]</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -934,11 +854,6 @@
           <t>10.192.52.125</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -964,11 +879,6 @@
           <t>10.192.52.223</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>APC SUA1000I Smart-UPS 1000VA/670W USB &amp; Serial</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -994,11 +904,6 @@
           <t>10.192.52.223</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>APC AP9619</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1024,11 +929,6 @@
           <t>10.192.52.111</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>APC Smart UPS RT 3000VA/2100W (SURTD3000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1054,11 +954,6 @@
           <t>10.192.52.102</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS XL 2200 VA/1980W Black SUA2200XLI</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1084,11 +979,6 @@
           <t>10.192.52.103</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1114,11 +1004,6 @@
           <t>10.192.52.101</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1144,11 +1029,6 @@
           <t>10.192.52.142</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1174,11 +1054,6 @@
           <t>10.192.130.101</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1204,11 +1079,6 @@
           <t>10.192.42.99</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1234,11 +1104,6 @@
           <t>10.192.67.145</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1264,11 +1129,6 @@
           <t>10.192.57.70</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1294,11 +1154,6 @@
           <t>10.192.57.66</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1324,11 +1179,6 @@
           <t>10.192.22.195</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1354,11 +1204,6 @@
           <t>10.192.62.6</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>APC Smart UPS RT 3000VA/2100W (SURTD3000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1384,11 +1229,6 @@
           <t>10.192.63.131</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 1500 RM (SUA1500RMI2U)</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1414,11 +1254,6 @@
           <t>10.192.124.243</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT On-Line 1000VA/700W Tower/RM 2U, SmartSlot, BLACK [SURT1000XLI]</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1444,11 +1279,6 @@
           <t>10.192.57.199</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1474,11 +1304,6 @@
           <t>10.192.122.82</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1504,11 +1329,6 @@
           <t>10.192.122.82</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>APC AP9617</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1534,11 +1354,6 @@
           <t>10.192.122.85</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS XL 1000VA (SUA1000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1564,11 +1379,6 @@
           <t>10.192.114.251</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1594,11 +1404,6 @@
           <t>10.192.114.250</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1624,11 +1429,6 @@
           <t>10.192.114.208</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>APC AP9619</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1654,11 +1454,6 @@
           <t>10.192.127.130</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1684,11 +1479,6 @@
           <t>10.192.114.211</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1714,11 +1504,6 @@
           <t>10.192.114.233</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1744,11 +1529,6 @@
           <t>10.192.114.207</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1774,11 +1554,6 @@
           <t>10.192.114.207</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>APC AP9619</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1804,11 +1579,6 @@
           <t>10.192.114.232</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1834,11 +1604,6 @@
           <t>10.192.114.186</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1864,11 +1629,6 @@
           <t>10.192.28.202</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1894,11 +1654,6 @@
           <t>10.192.37.179</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1924,11 +1679,6 @@
           <t>10.192.0.242</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 2200</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1954,11 +1704,6 @@
           <t>10.192.22.162</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1984,11 +1729,6 @@
           <t>10.192.45.87</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2014,11 +1754,6 @@
           <t>10.192.61.57</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT On-Line 8000VA Tower/RM 6U</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2044,11 +1779,6 @@
           <t>10.192.49.109</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2074,11 +1804,6 @@
           <t>10.192.21.82</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2104,11 +1829,6 @@
           <t>10.192.40.19</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2134,11 +1854,6 @@
           <t>10.192.1.244</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>APC Smart UPS RT 3000VA/2100W (SURTD3000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2164,11 +1879,6 @@
           <t>10.192.119.14</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2194,11 +1904,6 @@
           <t>10.192.24.231</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2224,11 +1929,6 @@
           <t>10.192.15.147</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2254,11 +1954,6 @@
           <t>10.192.14.94</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT 10.000VA  (SURT10000XL)</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2284,11 +1979,6 @@
           <t>10.192.14.95</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT 1000VA (SURT1000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2314,11 +2004,6 @@
           <t>10.192.14.95</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>APC AP9617</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2344,11 +2029,6 @@
           <t>10.192.61.14</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2374,11 +2054,6 @@
           <t>10.192.6.73</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 2200 RM</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2404,11 +2079,6 @@
           <t xml:space="preserve"> 10.192.61.9</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 1500 RM (SUA1500RMI2U)</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2434,11 +2104,6 @@
           <t>10.192.61.117</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2464,11 +2129,6 @@
           <t>10.192.61.18</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2494,11 +2154,6 @@
           <t>10.192.70.7</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>APC Smart UPS RT 3000VA/2100W (SURTD3000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2524,11 +2179,6 @@
           <t>10.192.34.70</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 1000VA USB &amp; Serial RM 2U 230V (SUA1000RMI2U)</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2554,11 +2204,6 @@
           <t>10.192.132.105</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2584,11 +2229,6 @@
           <t>10.192.132.104</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2614,11 +2254,6 @@
           <t>10.192.132.106</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2644,11 +2279,6 @@
           <t>10.192.34.235</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2674,11 +2304,6 @@
           <t xml:space="preserve">10.192.66.105 </t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2704,11 +2329,6 @@
           <t>10.192.1.210</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2734,11 +2354,6 @@
           <t>10.192.41.37</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS XL 1000VA (SUA1000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2764,11 +2379,6 @@
           <t>10.192.38.37</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2794,11 +2404,6 @@
           <t>10.192.39.42</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2824,11 +2429,6 @@
           <t>10.192.35.236</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 1500 RM (SUA1500RMI2U)</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2854,11 +2454,6 @@
           <t>10.192.28.229</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2884,11 +2479,6 @@
           <t>10.192.28.235</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2914,11 +2504,6 @@
           <t>10.192.29.37</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 1500 RM (SUA1500RMI2U)</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2944,11 +2529,6 @@
           <t>10.192.2.70</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>APC Switch Rack PDU AP7920</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2974,11 +2554,6 @@
           <t>10.192.2.68</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>APC Switch Rack PDU AP7920</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3004,11 +2579,6 @@
           <t>10.192.4.184</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT 10.000VA  (SURT10000RMXLI)</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3034,11 +2604,6 @@
           <t>10.192.4.175</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 3000 RM (SUA3000RMI2U)</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3064,11 +2629,6 @@
           <t>10.192.26.231</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3094,11 +2654,6 @@
           <t>10.192.2.242</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS XL 1000VA (SUA1000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3124,11 +2679,6 @@
           <t>10.192.44.97</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3154,11 +2704,6 @@
           <t>10.192.44.97</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>APC AP9619</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3184,11 +2729,6 @@
           <t>10.192.44.73</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3214,11 +2754,6 @@
           <t>10.192.44.68</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 1500 RM (SUA1500RMI2U)</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3244,11 +2779,6 @@
           <t>10.192.121.10</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>EDFA-1550-20, Усилитель +20(Дб), NewNets 1550, SNMP, SC/APC</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3274,11 +2804,6 @@
           <t>10.192.69.2</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS XL 3000 SUA3000RMXLI3U</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3304,11 +2829,6 @@
           <t>10.192.5.25</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3334,11 +2854,6 @@
           <t>10.192.5.39</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3364,11 +2879,6 @@
           <t>192.168.0.123</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>VOLIUS VS575 EDFA-1550-25, Усилитель +25(Дб), SNMP, SC/APC</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3394,11 +2904,6 @@
           <t>10.192.76.130</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 1500 RM (SUA1500RMI2U)</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3424,11 +2929,6 @@
           <t>10.192.36.188</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3454,11 +2954,6 @@
           <t>10.192.27.111</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3484,11 +2979,6 @@
           <t>10.192.36.164</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3514,11 +3004,6 @@
           <t xml:space="preserve">10.192.36.172 </t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3544,11 +3029,6 @@
           <t>10.192.47.8</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3574,11 +3054,6 @@
           <t>10.192.47.20</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3604,11 +3079,6 @@
           <t>10.192.27.71</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3634,11 +3104,6 @@
           <t>10.192.107.101</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT On-Line 8000VA Tower/RM 6U</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3664,11 +3129,6 @@
           <t>10.192.3.233</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3694,11 +3154,6 @@
           <t>10.192.119.220</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3724,11 +3179,6 @@
           <t>10.192.39.67</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>APC Smart UPS RT 3000VA/2100W (SURTD3000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3754,11 +3204,6 @@
           <t>10.192.28.137</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 1500 RM (SUA1500RMI2U)</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3784,11 +3229,6 @@
           <t>10.192.28.137</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>APC AP9619</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3814,11 +3254,6 @@
           <t>10.192.3.173</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750XL</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3844,11 +3279,6 @@
           <t>10.192.26.36</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3874,11 +3304,6 @@
           <t>10.192.72.42</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3904,11 +3329,6 @@
           <t>10.192.72.41</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3934,11 +3354,6 @@
           <t>10.192.72.40</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3964,11 +3379,6 @@
           <t>10.192.72.39</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3994,11 +3404,6 @@
           <t>10.192.72.3</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4024,11 +3429,6 @@
           <t>10.192.61.61</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4054,11 +3454,6 @@
           <t>10.192.0.37</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 2200</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4084,11 +3479,6 @@
           <t>10.192.20.151</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APC Smart-UPS 2200 XL NET w/PC+ [SU2200XLINET] </t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4114,11 +3504,6 @@
           <t>10.192.0.18</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APC Smart-UPS 2200 XL NET w/PC+ [SU2200XLINET] </t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4144,11 +3529,6 @@
           <t>10.192.0.226</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>APC Smart- UPS RT 6000XL, [SURT6000XLI]</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4174,11 +3554,6 @@
           <t>10.192.3.54</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4204,11 +3579,6 @@
           <t>10.192.29.209</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>APC SUA1000RMI1U 1000VA/640W USB, RS-232, SmatrSlot</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4234,11 +3604,6 @@
           <t>10.192.22.89</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4264,11 +3629,6 @@
           <t>10.192.54.30</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4294,11 +3654,6 @@
           <t>10.192.22.98</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4324,11 +3679,6 @@
           <t>10.192.34.139</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4354,11 +3704,6 @@
           <t>10.192.34.131</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4384,11 +3729,6 @@
           <t>10.192.44.34</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4414,11 +3754,6 @@
           <t>10.192.141.39</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4444,11 +3779,6 @@
           <t>10.192.1.83</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 1500 RM (SUA1500RMI2U)</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4474,11 +3804,6 @@
           <t>10.192.25.162</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APC Smart-UPS 2200 XL NET w/PC+ [SU2200XLINET] </t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4504,11 +3829,6 @@
           <t>10.192.0.239</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4534,11 +3854,6 @@
           <t>10.192.22.247</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4564,11 +3879,6 @@
           <t>10.192.63.14</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4594,11 +3904,6 @@
           <t>10.192.29.101</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>APC SUA1000I Smart-UPS 1000VA/670W USB &amp; Serial</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -4624,11 +3929,6 @@
           <t>10.192.23.153</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 700XL- источник бесперебойного питания</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -4654,11 +3954,6 @@
           <t>10.192.100.162</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS, 1600 Watts / 2200 VA, RM, 5U, SUA2200RMXLINET</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -4684,11 +3979,6 @@
           <t>10.192.51.102</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>APC PDU AP7851</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4714,11 +4004,6 @@
           <t>10.192.51.94</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4744,11 +4029,6 @@
           <t>10.192.51.95</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4774,11 +4054,6 @@
           <t>10.192.51.96</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4804,11 +4079,6 @@
           <t>10.192.51.97</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4834,11 +4104,6 @@
           <t>10.192.51.98</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4864,11 +4129,6 @@
           <t>10.192.51.99</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4894,11 +4154,6 @@
           <t>10.192.51.100</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4924,11 +4179,6 @@
           <t>10.192.51.93</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4954,11 +4204,6 @@
           <t>10.192.27.162</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4984,11 +4229,6 @@
           <t>10.192.27.163</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5014,11 +4254,6 @@
           <t>10.192.27.164</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5044,11 +4279,6 @@
           <t xml:space="preserve">10.192.27.165 </t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5074,11 +4304,6 @@
           <t>10.192.27.166</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5104,11 +4329,6 @@
           <t>10.192.27.167</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5134,11 +4354,6 @@
           <t>10.192.27.173</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5164,11 +4379,6 @@
           <t>10.192.27.168</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5194,11 +4404,6 @@
           <t>10.192.27.169</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5224,11 +4429,6 @@
           <t>10.192.27.170</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5254,11 +4454,6 @@
           <t>10.192.41.144</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5284,11 +4479,6 @@
           <t>10.192.4.231</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5314,11 +4504,6 @@
           <t>10.192.12.168</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS, 1600 Watts / 2200 VA, RM, 5U, SUA2200RMXLINET</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5344,11 +4529,6 @@
           <t>10.192.35.181</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5374,11 +4554,6 @@
           <t>10.192.45.83</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5404,11 +4579,6 @@
           <t>10.192.22.40</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>APC BR550GI</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5434,11 +4604,6 @@
           <t>10.192.4.75</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 1500 RM (SUA1500RMI2U)</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5464,11 +4629,6 @@
           <t>10.192.5.137</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5494,11 +4654,6 @@
           <t>10.192.34.11</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5524,11 +4679,6 @@
           <t>10.192.5.13</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -5554,11 +4704,6 @@
           <t>10.192.5.13</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>APC AP9606</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -5584,11 +4729,6 @@
           <t>10.192.124.126</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -5614,11 +4754,6 @@
           <t>10.192.39.90</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -5644,11 +4779,6 @@
           <t>10.192.39.90</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>APC AP9630</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -5674,11 +4804,6 @@
           <t>10.192.6.196</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -5704,11 +4829,6 @@
           <t>10.192.3.162</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APC Smart-UPS 2200 XL NET w/PC+ [SU2200XLINET] </t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -5734,11 +4854,6 @@
           <t>10.192.56.129</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS VT 15kVa [SUVTPF15KB4H]</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -5764,11 +4879,6 @@
           <t>10.192.56.132</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS VT 15kVa [SUVTPF15KB4H]</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -5794,11 +4904,6 @@
           <t>10.192.56.133</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS VT 15kVa [SUVTPF15KB4H]</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -5824,11 +4929,6 @@
           <t>10.192.56.130</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>APC Smart UPS RT 3000VA/2100W (SURTD3000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -5854,11 +4954,6 @@
           <t>10.34.104.46</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -5884,11 +4979,6 @@
           <t>10.192.57.57</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>APC AP9619</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5914,11 +5004,6 @@
           <t>10.192.41.130</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>APC Smart UPS RT 3000VA/2100W (SURTD3000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5944,11 +5029,6 @@
           <t>10.192.51.227</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5974,11 +5054,6 @@
           <t>10.192.61.37</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6004,11 +5079,6 @@
           <t>10.192.138.205</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6034,11 +5104,6 @@
           <t>10.192.43.144</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6064,11 +5129,6 @@
           <t>10.192.43.138</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6094,11 +5154,6 @@
           <t>10.192.6.214</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6124,11 +5179,6 @@
           <t>10.192.37.164</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 2200</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6154,11 +5204,6 @@
           <t>10.192.38.67</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6184,11 +5229,6 @@
           <t>10.192.142.7</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT 5000VA (SURT5000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6214,11 +5254,6 @@
           <t>10.192.112.106</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6244,11 +5279,6 @@
           <t>10.192.26.125</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6274,11 +5304,6 @@
           <t>10.192.26.122</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6304,11 +5329,6 @@
           <t>10.192.23.6</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SMT750I)</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6334,11 +5354,6 @@
           <t>10.192.57.22</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 1500XLM, 2U,[SUM1500RMXLI2U]</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6364,11 +5379,6 @@
           <t>10.192.48.35</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT 10.000VA  (SURT10000RMXLI)</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6394,11 +5404,6 @@
           <t>10.192.48.36</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6424,11 +5429,6 @@
           <t>10.192.7.19</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -6454,11 +5454,6 @@
           <t>10.192.23.21</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS SUA2200RMXLI3U</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -6484,11 +5479,6 @@
           <t>10.192.21.67</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -6514,11 +5504,6 @@
           <t>10.192.46.13</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -6544,11 +5529,6 @@
           <t>10.192.46.21</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -6574,11 +5554,6 @@
           <t>10.192.46.12</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SMT750I)</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -6604,11 +5579,6 @@
           <t>10.192.46.22</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -6634,11 +5604,6 @@
           <t>10.192.46.36</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -6664,11 +5629,6 @@
           <t>10.192.46.6</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -6694,11 +5654,6 @@
           <t>10.192.46.16</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -6724,11 +5679,6 @@
           <t>10.192.46.15</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -6754,11 +5704,6 @@
           <t>10.192.1.227</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -6784,11 +5729,6 @@
           <t>10.192.21.22</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SMT750I)</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -6814,11 +5754,6 @@
           <t>10.192.20.19</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -6844,11 +5779,6 @@
           <t>10.192.26.164</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -6874,11 +5804,6 @@
           <t>10.192.22.5</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -6904,11 +5829,6 @@
           <t>10.192.38.227</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -6934,11 +5854,6 @@
           <t>10.192.48.84</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -6964,11 +5879,6 @@
           <t>10.192.29.58</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -6994,11 +5904,6 @@
           <t>10.192.1.194</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7024,11 +5929,6 @@
           <t>10.192.55.254</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7054,11 +5954,6 @@
           <t>10.192.2.122</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS XL 1000VA (SUA1000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7084,11 +5979,6 @@
           <t>10.192.28.124</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7114,11 +6004,6 @@
           <t>10.192.104.211</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7144,11 +6029,6 @@
           <t>10.192.29.149</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7174,11 +6054,6 @@
           <t>10.192.27.229</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT 1000VA (SURT1000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7204,11 +6079,6 @@
           <t>10.192.41.46</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7234,11 +6104,6 @@
           <t>10.192.22.82</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7264,11 +6129,6 @@
           <t>10.192.6.36</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7294,11 +6154,6 @@
           <t xml:space="preserve">10.192.31.134 </t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 1500 RM (SUA1500RMI2U)</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7324,11 +6179,6 @@
           <t>10.192.22.148</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -7354,11 +6204,6 @@
           <t>10.192.136.90</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 2200VA, (SUA2200RMI2U) Rack Mount 2U USB</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -7384,11 +6229,6 @@
           <t>10.192.4.157</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -7414,11 +6254,6 @@
           <t>10.192.61.29</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -7444,11 +6279,6 @@
           <t>10.192.3.196</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -7474,11 +6304,6 @@
           <t xml:space="preserve">10.192.71.139  </t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -7504,11 +6329,6 @@
           <t>10.192.3.124</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT 2000VA/1400W(SURT2000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -7534,11 +6354,6 @@
           <t>10.192.42.131</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -7564,11 +6379,6 @@
           <t>10.192.73.16</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>APC BK500-RS 500VA/300W</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -7594,11 +6404,6 @@
           <t>10.192.127.208</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 2200 RM</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -7624,11 +6429,6 @@
           <t>10.192.44.94</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -7654,11 +6454,6 @@
           <t>10.192.23.163</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT 2000VA/1400W(SURT2000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -7684,11 +6479,6 @@
           <t>10.192.139.76</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -7714,11 +6504,6 @@
           <t>10.192.23.212</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -7744,11 +6529,6 @@
           <t>10.192.139.38</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -7774,11 +6554,6 @@
           <t>10.192.131.39</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT On-Line 1000VA/700W Tower/RM 2U, SmartSlot, BLACK [SURT1000XLI]</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -7804,11 +6579,6 @@
           <t>10.192.54.131</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>APC Smart UPS RT 3000VA/2100W (SURTD3000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -7834,11 +6604,6 @@
           <t>10.192.41.68</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT SURTD5000XLI</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -7864,11 +6629,6 @@
           <t>10.192.28.4</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT 5000VA (SURT5000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -7894,11 +6654,6 @@
           <t>10.192.55.28</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>APC Smart- UPS RT 6000XL, [SURT6000XLI]</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -7924,11 +6679,6 @@
           <t>10.192.34.2</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS XL 1000VA (SUA1000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -7954,11 +6704,6 @@
           <t>10.192.13.46</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -7984,11 +6729,6 @@
           <t>10.192.1.100</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8014,11 +6754,6 @@
           <t>10.192.59.10</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8044,11 +6779,6 @@
           <t>10.192.66.2</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT 5000VA (SURT5000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8074,11 +6804,6 @@
           <t>10.192.66.114</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8104,11 +6829,6 @@
           <t>10.192.66.115</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8134,11 +6854,6 @@
           <t>10.192.66.143</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8164,11 +6879,6 @@
           <t>10.192.66.116</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8194,11 +6904,6 @@
           <t>10.192.66.78</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8224,11 +6929,6 @@
           <t>10.192.66.120</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8254,11 +6954,6 @@
           <t>10.192.66.118</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -8284,11 +6979,6 @@
           <t>10.192.66.119</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -8314,11 +7004,6 @@
           <t>10.192.66.121</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -8344,11 +7029,6 @@
           <t>10.192.66.31</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>APC Smart UPS 1500VA USB 230V (SUA1500I)</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -8374,11 +7054,6 @@
           <t>10.192.64.196</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SMT750I)</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -8404,11 +7079,6 @@
           <t>10.192.45.3</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -8434,11 +7104,6 @@
           <t>10.192.35.174</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -8464,11 +7129,6 @@
           <t>10.192.71.144</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 1500 RM (SUA1500RMI2U)</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -8494,11 +7154,6 @@
           <t>10.192.71.144</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>APC AP9619</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -8524,11 +7179,6 @@
           <t>10.192.28.16</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -8554,11 +7204,6 @@
           <t>10.192.54.81</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS XL 1000VA (SUA1000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -8584,11 +7229,6 @@
           <t>10.192.28.94</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -8614,11 +7254,6 @@
           <t>10.192.6.28</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -8644,11 +7279,6 @@
           <t>10.192.22.119</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 1500 RM (SUA1500RMI2U)</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -8674,11 +7304,6 @@
           <t>10.192.21.216</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>APC Rack-mount Transfer Switches AP7724 Rack ATS, 2U 230V, 32A</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -8704,11 +7329,6 @@
           <t>10.192.2.19</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -8734,11 +7354,6 @@
           <t>10.192.22.75</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SMT750I)</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -8764,11 +7379,6 @@
           <t>10.192.33.100</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -8794,11 +7404,6 @@
           <t>10.192.15.245</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS RT 5000VA (SURT5000XLI)</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -8824,11 +7429,6 @@
           <t>10.192.46.4</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS XL 3000 SUA3000RMXLI3U</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -8854,11 +7454,6 @@
           <t>10.192.33.227</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -8884,11 +7479,6 @@
           <t>10.192.33.234</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS 750 (SUA750I)</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -8912,11 +7502,6 @@
       <c r="E283" t="inlineStr">
         <is>
           <t>10.192.35.185</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>APC Smart-UPS VT 10kVa</t>
         </is>
       </c>
     </row>
